--- a/resume_data.xlsx
+++ b/resume_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Name</t>
   </si>
@@ -34,32 +34,10 @@
     <t>Skills</t>
   </si>
   <si>
-    <t>Jayant Bisht</t>
-  </si>
-  <si>
-    <t>jk913600@gmail.com</t>
-  </si>
-  <si>
-    <t>7827527131</t>
-  </si>
-  <si>
-    <t>MLT Trainee April 2023 – May 2023
-Allsoft Solutions New Delhi, India
-•Participated in regular code reviews to maintain high-quality standards across the entire development team’s work
-output.
-•Collaborated with cross-functional teams to develop end-to-end machine learning solutions, ensuring seamless
-integration into existing systems.
-•Designed detailed documentation for developed models and algorithms, supporting future maintenance efforts and
-knowledge sharing among colleagues.</t>
-  </si>
-  <si>
-    <t>Bhagwan Parshuram Institute Of Technology New Delhi,India
-Bachelor’s in Technology in AI-DS Aug. 2022 – July 2026
-Guru Tegh Bahadur Polytechnic Institute of Technology New Delhi,India
-Diploma in Computer Science Aug. 2020 – May 2023</t>
-  </si>
-  <si>
-    <t>Python, SQL, C++, Docker, Machine Learning, Java, AWS</t>
+    <t>hello@reallygreatsite.com</t>
+  </si>
+  <si>
+    <t>123-456-7890</t>
   </si>
 </sst>
 </file>
@@ -444,23 +422,11 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
